--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_14_4.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_14_4.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2028643.50415111</v>
+        <v>-2031321.389549969</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673431</v>
       </c>
     </row>
     <row r="9">
@@ -662,19 +662,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>290.7803234321368</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>299.570543554002</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -722,10 +722,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -814,22 +814,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -862,19 +862,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>104.2234956082338</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>23.72391537342417</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -905,13 +905,13 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>266.5341305337699</v>
       </c>
       <c r="G5" t="n">
         <v>11.54770277295399</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -956,10 +956,10 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>277.6116016255349</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1063,10 +1063,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>21.53081003936524</v>
       </c>
       <c r="G7" t="n">
-        <v>13.03930197416709</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
         <v>147.2515091551289</v>
@@ -1099,28 +1099,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
         <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,13 +1130,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>57.81578986397397</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1148,7 +1148,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -1181,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>203.9179701396201</v>
@@ -1193,10 +1193,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>101.7804971717333</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1288,22 +1288,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>45.51125238799582</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1336,19 +1336,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>142.9392783001809</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1430,7 +1430,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174136</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1531,13 +1531,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -1546,7 +1546,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1582,13 +1582,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>147.6895341487355</v>
+        <v>60.11729550773704</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1762,19 +1762,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>28.75188085812055</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1783,7 +1783,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1828,10 +1828,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>45.16086499484859</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2005,7 +2005,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2014,13 +2014,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>71.76895293959902</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2068,7 +2068,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>63.1628130171261</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833859</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2491,10 +2491,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2530,7 +2530,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>147.6895341487369</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2603,13 +2603,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2722,7 +2722,7 @@
         <v>122.1493151545294</v>
       </c>
       <c r="F28" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308925</v>
       </c>
       <c r="G28" t="n">
         <v>141.2394908002291</v>
@@ -2731,7 +2731,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I28" t="n">
-        <v>56.9811888265258</v>
+        <v>56.98118882652578</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S28" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T28" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U28" t="n">
         <v>261.8998268972044</v>
@@ -2947,16 +2947,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>155.5473326898976</v>
+        <v>155.547332689898</v>
       </c>
       <c r="C31" t="n">
         <v>142.9621736065881</v>
       </c>
       <c r="D31" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E31" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F31" t="n">
         <v>121.1364005308915</v>
@@ -2965,10 +2965,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H31" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I31" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3092,7 +3092,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784677</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -3193,7 +3193,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E34" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F34" t="n">
         <v>121.1364005308915</v>
@@ -3205,7 +3205,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S34" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T34" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U34" t="n">
         <v>261.8998268972044</v>
@@ -3281,7 +3281,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3424,25 +3424,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C37" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D37" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F37" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308916</v>
       </c>
       <c r="G37" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I37" t="n">
-        <v>56.9811888265258</v>
+        <v>56.98118882652584</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808196</v>
+        <v>42.090599218082</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U37" t="n">
         <v>261.8998268972044</v>
@@ -3487,7 +3487,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X37" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y37" t="n">
         <v>194.3000058600551</v>
@@ -3557,7 +3557,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3679,7 +3679,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I40" t="n">
-        <v>56.9811888265258</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
@@ -3755,7 +3755,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3898,25 +3898,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C43" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D43" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F43" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308916</v>
       </c>
       <c r="G43" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H43" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652584</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808196</v>
+        <v>42.090599218082</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
@@ -3961,7 +3961,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X43" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y43" t="n">
         <v>194.3000058600551</v>
@@ -4138,10 +4138,10 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D46" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E46" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F46" t="n">
         <v>121.1364005308915</v>
@@ -4153,7 +4153,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652584</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808199</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T46" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U46" t="n">
         <v>261.8998268972044</v>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1081.071510755571</v>
+        <v>1844.676600992463</v>
       </c>
       <c r="C2" t="n">
-        <v>712.1089938151597</v>
+        <v>1475.714084052051</v>
       </c>
       <c r="D2" t="n">
-        <v>353.8432952084092</v>
+        <v>1181.996585635751</v>
       </c>
       <c r="E2" t="n">
-        <v>353.8432952084092</v>
+        <v>1181.996585635751</v>
       </c>
       <c r="F2" t="n">
-        <v>353.8432952084092</v>
+        <v>771.0106808461439</v>
       </c>
       <c r="G2" t="n">
-        <v>353.8432952084092</v>
+        <v>355.3059305704328</v>
       </c>
       <c r="H2" t="n">
         <v>51.24678656800311</v>
@@ -4331,7 +4331,7 @@
         <v>187.5281822362817</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816082</v>
       </c>
       <c r="L2" t="n">
         <v>795.7553530872915</v>
@@ -4370,10 +4370,10 @@
         <v>2231.276441056585</v>
       </c>
       <c r="X2" t="n">
-        <v>1857.810682795505</v>
+        <v>2231.276441056585</v>
       </c>
       <c r="Y2" t="n">
-        <v>1467.671350819693</v>
+        <v>2231.276441056585</v>
       </c>
     </row>
     <row r="3">
@@ -4410,25 +4410,25 @@
         <v>238.4273302370161</v>
       </c>
       <c r="K3" t="n">
-        <v>423.148951518066</v>
+        <v>614.543024838023</v>
       </c>
       <c r="L3" t="n">
-        <v>717.8525085495378</v>
+        <v>909.2465818694948</v>
       </c>
       <c r="M3" t="n">
-        <v>1081.114527508758</v>
+        <v>1272.508600828715</v>
       </c>
       <c r="N3" t="n">
-        <v>1468.399656105703</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O3" t="n">
-        <v>1967.526114878149</v>
+        <v>1991.864164601822</v>
       </c>
       <c r="P3" t="n">
-        <v>2214.708848710446</v>
+        <v>2239.046898434119</v>
       </c>
       <c r="Q3" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R3" t="n">
         <v>2562.339328400155</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>538.2860735999672</v>
+        <v>1292.966125319479</v>
       </c>
       <c r="C4" t="n">
-        <v>369.3498906720603</v>
+        <v>1124.029942391572</v>
       </c>
       <c r="D4" t="n">
-        <v>219.2332512597245</v>
+        <v>1124.029942391572</v>
       </c>
       <c r="E4" t="n">
-        <v>219.2332512597245</v>
+        <v>1124.029942391572</v>
       </c>
       <c r="F4" t="n">
-        <v>219.2332512597245</v>
+        <v>977.1399948936614</v>
       </c>
       <c r="G4" t="n">
-        <v>51.24678656800311</v>
+        <v>977.1399948936614</v>
       </c>
       <c r="H4" t="n">
-        <v>51.24678656800311</v>
+        <v>977.1399948936614</v>
       </c>
       <c r="I4" t="n">
-        <v>51.24678656800311</v>
+        <v>977.1399948936614</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312199</v>
+        <v>1002.60916787878</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020475</v>
+        <v>1174.299679627706</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693234</v>
+        <v>1449.530858294982</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096587</v>
+        <v>1750.112669035317</v>
       </c>
       <c r="N4" t="n">
-        <v>1123.088724245823</v>
+        <v>2048.981932571481</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999035</v>
+        <v>2309.019775324693</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171024</v>
+        <v>2508.006390496682</v>
       </c>
       <c r="Q4" t="n">
-        <v>1636.446120074497</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R4" t="n">
-        <v>1636.446120074497</v>
+        <v>2459.755921915737</v>
       </c>
       <c r="S4" t="n">
-        <v>1636.446120074497</v>
+        <v>2459.755921915737</v>
       </c>
       <c r="T4" t="n">
-        <v>1636.446120074497</v>
+        <v>2236.777441110473</v>
       </c>
       <c r="U4" t="n">
-        <v>1531.169861884362</v>
+        <v>2236.777441110473</v>
       </c>
       <c r="V4" t="n">
-        <v>1276.485373678475</v>
+        <v>2212.813890228226</v>
       </c>
       <c r="W4" t="n">
-        <v>987.0682036415146</v>
+        <v>1923.396720191266</v>
       </c>
       <c r="X4" t="n">
-        <v>759.0786527434973</v>
+        <v>1695.407169293248</v>
       </c>
       <c r="Y4" t="n">
-        <v>538.2860735999672</v>
+        <v>1474.614590149718</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1505.18439714251</v>
+        <v>1059.365742829028</v>
       </c>
       <c r="C5" t="n">
-        <v>1136.221880202098</v>
+        <v>690.4032258886161</v>
       </c>
       <c r="D5" t="n">
-        <v>777.9561815953475</v>
+        <v>332.1375272818656</v>
       </c>
       <c r="E5" t="n">
-        <v>777.9561815953475</v>
+        <v>332.1375272818656</v>
       </c>
       <c r="F5" t="n">
-        <v>366.9702768057399</v>
+        <v>62.91113280331017</v>
       </c>
       <c r="G5" t="n">
-        <v>355.3059305704328</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H5" t="n">
         <v>51.24678656800311</v>
@@ -4604,13 +4604,13 @@
         <v>2562.339328400155</v>
       </c>
       <c r="W5" t="n">
-        <v>2562.339328400155</v>
+        <v>2209.570673130041</v>
       </c>
       <c r="X5" t="n">
-        <v>2281.923569182443</v>
+        <v>1836.104914868961</v>
       </c>
       <c r="Y5" t="n">
-        <v>1891.784237206631</v>
+        <v>1445.96558289315</v>
       </c>
     </row>
     <row r="6">
@@ -4699,19 +4699,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>466.924937052615</v>
+        <v>643.4886826182739</v>
       </c>
       <c r="C7" t="n">
-        <v>466.924937052615</v>
+        <v>643.4886826182739</v>
       </c>
       <c r="D7" t="n">
-        <v>466.924937052615</v>
+        <v>643.4886826182739</v>
       </c>
       <c r="E7" t="n">
-        <v>319.0118434702218</v>
+        <v>495.5755890358807</v>
       </c>
       <c r="F7" t="n">
-        <v>319.0118434702218</v>
+        <v>473.8272960668249</v>
       </c>
       <c r="G7" t="n">
         <v>305.8408313751036</v>
@@ -4747,28 +4747,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="S7" t="n">
-        <v>1636.446120074497</v>
+        <v>1337.23396574994</v>
       </c>
       <c r="T7" t="n">
-        <v>1413.467639269232</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U7" t="n">
-        <v>1413.467639269232</v>
+        <v>825.1371474485136</v>
       </c>
       <c r="V7" t="n">
-        <v>1158.783151063345</v>
+        <v>825.1371474485136</v>
       </c>
       <c r="W7" t="n">
-        <v>869.3659810263848</v>
+        <v>825.1371474485136</v>
       </c>
       <c r="X7" t="n">
-        <v>869.3659810263848</v>
+        <v>825.1371474485136</v>
       </c>
       <c r="Y7" t="n">
-        <v>648.5734018828547</v>
+        <v>825.1371474485136</v>
       </c>
     </row>
     <row r="8">
@@ -4778,28 +4778,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1976.204921733553</v>
+        <v>1689.318139675982</v>
       </c>
       <c r="C8" t="n">
-        <v>1976.204921733553</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="D8" t="n">
-        <v>1617.939223126803</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
         <v>255.3912473912088</v>
@@ -4814,40 +4814,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520487</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794324</v>
+        <v>2866.09759726723</v>
       </c>
       <c r="V8" t="n">
-        <v>2424.744041450753</v>
+        <v>2535.034709923659</v>
       </c>
       <c r="W8" t="n">
-        <v>2424.744041450753</v>
+        <v>2182.266054653544</v>
       </c>
       <c r="X8" t="n">
-        <v>2424.744041450753</v>
+        <v>2079.457471651794</v>
       </c>
       <c r="Y8" t="n">
-        <v>2034.604709474941</v>
+        <v>1689.318139675982</v>
       </c>
     </row>
     <row r="9">
@@ -4872,13 +4872,13 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927781</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I9" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
         <v>160.1893859228007</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>478.4305777370295</v>
+        <v>526.6580321322147</v>
       </c>
       <c r="C10" t="n">
-        <v>478.4305777370295</v>
+        <v>357.7218492043078</v>
       </c>
       <c r="D10" t="n">
-        <v>478.4305777370295</v>
+        <v>311.7508871962312</v>
       </c>
       <c r="E10" t="n">
-        <v>478.4305777370295</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="F10" t="n">
-        <v>331.5406302391191</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="G10" t="n">
-        <v>163.837793613838</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H10" t="n">
-        <v>163.837793613838</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4984,28 +4984,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1837.464090846021</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T10" t="n">
-        <v>1615.697475415547</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="U10" t="n">
-        <v>1471.314366021425</v>
+        <v>1446.505797040963</v>
       </c>
       <c r="V10" t="n">
-        <v>1216.629877815538</v>
+        <v>1446.505797040963</v>
       </c>
       <c r="W10" t="n">
-        <v>927.2127077785769</v>
+        <v>1157.088627004002</v>
       </c>
       <c r="X10" t="n">
-        <v>699.2231568805596</v>
+        <v>929.0990761059845</v>
       </c>
       <c r="Y10" t="n">
-        <v>478.4305777370295</v>
+        <v>708.3064969624544</v>
       </c>
     </row>
     <row r="11">
@@ -5033,55 +5033,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,10 +5112,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J12" t="n">
         <v>243.4633055756266</v>
@@ -5130,16 +5130,16 @@
         <v>1072.713683962606</v>
       </c>
       <c r="N12" t="n">
-        <v>1307.627092998424</v>
+        <v>1700.311647517213</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>653.7474797708871</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C13" t="n">
-        <v>484.8112968429803</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D13" t="n">
-        <v>484.8112968429803</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E13" t="n">
-        <v>484.8112968429803</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797736</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832662</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487566</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510507</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U13" t="n">
-        <v>1828.279732885522</v>
+        <v>1983.7822433412</v>
       </c>
       <c r="V13" t="n">
-        <v>1573.595244679635</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="W13" t="n">
-        <v>1284.178074642674</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X13" t="n">
-        <v>1056.188523744657</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y13" t="n">
-        <v>835.3959446011269</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="14">
@@ -5255,34 +5255,34 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
         <v>2206.55866301478</v>
@@ -5291,34 +5291,34 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>589.1422692637306</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>716.6687843969308</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951538</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356195</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232838</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408906</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>1144.284195611858</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y16" t="n">
-        <v>1098.667160263527</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="17">
@@ -5507,16 +5507,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.192580311171</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5531,13 +5531,13 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
         <v>4606.285157492578</v>
@@ -5549,13 +5549,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>175.8744207939072</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
-        <v>671.2000270096659</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1268.578514636218</v>
+        <v>1231.938859683104</v>
       </c>
       <c r="N18" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>734.6461798836018</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>565.7099969556949</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121643</v>
+        <v>415.5933575433592</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121643</v>
+        <v>415.5933575433592</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121643</v>
+        <v>415.5933575433592</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>248.3972582582391</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>916.2946447138415</v>
       </c>
     </row>
     <row r="20">
@@ -5741,40 +5741,40 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
         <v>4606.285157492578</v>
@@ -5786,13 +5786,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,34 +5823,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239597</v>
       </c>
       <c r="L21" t="n">
-        <v>93.81666304797187</v>
+        <v>924.8344286397185</v>
       </c>
       <c r="M21" t="n">
-        <v>691.1951506745238</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N21" t="n">
-        <v>1318.79311422913</v>
+        <v>2149.810879820877</v>
       </c>
       <c r="O21" t="n">
-        <v>1870.702844468417</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P21" t="n">
-        <v>2294.325993963485</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q21" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>631.7012443408906</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C22" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D22" t="n">
-        <v>631.7012443408906</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408906</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="23">
@@ -5963,34 +5963,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -5999,7 +5999,7 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
         <v>3640.422291068009</v>
@@ -6020,19 +6020,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="24">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="26">
@@ -6200,46 +6200,46 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6257,19 +6257,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>926.9575315319321</v>
+        <v>926.9575315319332</v>
       </c>
       <c r="C28" t="n">
-        <v>782.5512955656815</v>
+        <v>782.5512955656826</v>
       </c>
       <c r="D28" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150032</v>
       </c>
       <c r="E28" t="n">
-        <v>533.5814564942652</v>
+        <v>533.5814564942664</v>
       </c>
       <c r="F28" t="n">
-        <v>411.2214559580112</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G28" t="n">
-        <v>268.5553036345475</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H28" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K28" t="n">
-        <v>483.8255460380729</v>
+        <v>483.8255460380731</v>
       </c>
       <c r="L28" t="n">
-        <v>898.265941231132</v>
+        <v>898.2659412311326</v>
       </c>
       <c r="M28" t="n">
-        <v>1344.317444979286</v>
+        <v>1344.317444979287</v>
       </c>
       <c r="N28" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O28" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P28" t="n">
-        <v>2496.057455973195</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q28" t="n">
-        <v>2639.297491717214</v>
+        <v>2639.297491717216</v>
       </c>
       <c r="R28" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S28" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T28" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U28" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838287</v>
       </c>
       <c r="V28" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W28" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518752</v>
       </c>
       <c r="X28" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.338681582391</v>
       </c>
       <c r="Y28" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400517</v>
       </c>
     </row>
     <row r="29">
@@ -6458,16 +6458,16 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
         <v>2206.558663014778</v>
@@ -6476,10 +6476,10 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q29" t="n">
         <v>4562.265728852254</v>
@@ -6537,22 +6537,22 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6595,19 +6595,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>926.9575315319322</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C31" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D31" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E31" t="n">
-        <v>533.5814564942652</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F31" t="n">
-        <v>411.2214559580111</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G31" t="n">
         <v>268.5553036345476</v>
@@ -6622,10 +6622,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K31" t="n">
-        <v>483.8255460380728</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L31" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M31" t="n">
         <v>1344.317444979286</v>
@@ -6646,7 +6646,7 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S31" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T31" t="n">
         <v>2243.385329532432</v>
@@ -6655,13 +6655,13 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V31" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W31" t="n">
         <v>1483.798285518751</v>
       </c>
       <c r="X31" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y31" t="n">
         <v>1084.076049400516</v>
@@ -6686,61 +6686,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6771,34 +6771,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>691.1951506745238</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>1318.79311422913</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
-        <v>1870.702844468417</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6853,43 +6853,43 @@
         <v>151.3734194384019</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K34" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M34" t="n">
-        <v>1344.317444979287</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N34" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O34" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P34" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q34" t="n">
         <v>2639.297491717215</v>
       </c>
       <c r="R34" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S34" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T34" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U34" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V34" t="n">
         <v>1748.685508594055</v>
@@ -6911,10 +6911,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004712</v>
@@ -6923,16 +6923,16 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111715</v>
@@ -6950,7 +6950,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6968,19 +6968,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7014,19 +7014,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1520.445529061503</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>2148.04349261611</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7075,31 +7075,31 @@
         <v>782.5512955656816</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150022</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942654</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580111</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345473</v>
       </c>
       <c r="H37" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954148</v>
       </c>
       <c r="K37" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380726</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311323</v>
+        <v>898.265941231132</v>
       </c>
       <c r="M37" t="n">
         <v>1344.317444979286</v>
@@ -7114,19 +7114,19 @@
         <v>2496.057455973196</v>
       </c>
       <c r="Q37" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717214</v>
       </c>
       <c r="R37" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S37" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T37" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U37" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V37" t="n">
         <v>1748.685508594055</v>
@@ -7135,7 +7135,7 @@
         <v>1483.798285518751</v>
       </c>
       <c r="X37" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y37" t="n">
         <v>1084.076049400516</v>
@@ -7169,13 +7169,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7208,13 +7208,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7251,28 +7251,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>691.1951506745238</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>1318.79311422913</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
-        <v>1870.702844468417</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319322</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150022</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942654</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580112</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345475</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H40" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
-        <v>198.0944824954148</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380726</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M40" t="n">
         <v>1344.317444979286</v>
@@ -7354,7 +7354,7 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R40" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S40" t="n">
         <v>2438.456847547834</v>
@@ -7363,16 +7363,16 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V40" t="n">
         <v>1748.685508594055</v>
       </c>
       <c r="W40" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X40" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y40" t="n">
         <v>1084.076049400516</v>
@@ -7391,16 +7391,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
@@ -7424,7 +7424,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7445,13 +7445,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,28 +7543,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.957531531932</v>
+        <v>926.9575315319325</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656814</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D43" t="n">
-        <v>656.964603115002</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942651</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580111</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345473</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H43" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384018</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
         <v>198.094482495415</v>
@@ -7591,28 +7591,28 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S43" t="n">
         <v>2438.456847547834</v>
       </c>
       <c r="T43" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U43" t="n">
         <v>1978.840049838285</v>
       </c>
       <c r="V43" t="n">
-        <v>1748.685508594054</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W43" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y43" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="44">
@@ -7634,7 +7634,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
@@ -7643,13 +7643,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7682,13 +7682,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319325</v>
+        <v>926.9575315319327</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656819</v>
+        <v>782.551295565682</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150024</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942656</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
@@ -7804,13 +7804,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380731</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
@@ -7831,7 +7831,7 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T46" t="n">
         <v>2243.385329532432</v>
@@ -8058,7 +8058,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>193.3273467878353</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8070,7 +8070,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>168.7434581780647</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -8079,7 +8079,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
-        <v>45.52166981132082</v>
+        <v>20.9377812015499</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -9161,7 +9161,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>-4.047162027752102e-13</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -22550,19 +22550,19 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>63.90271818854615</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>411.547702772954</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>1.448009008403403</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>65.70991267247049</v>
@@ -22601,19 +22601,19 @@
         <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>142.8553992380344</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>309.9195785155487</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22762,7 +22762,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>228.4137279504038</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -23419,13 +23419,13 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23470,13 +23470,13 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>138.4949402405086</v>
+        <v>226.0671788815071</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23650,19 +23650,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>116.6691671648107</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23716,10 +23716,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>173.4237883572462</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23893,7 +23893,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23902,13 +23902,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>68.52575990662484</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24124,28 +24124,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>116.6691671648112</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>65.54986409393025</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24379,10 +24379,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24418,7 +24418,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>138.4949402405073</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -26311,28 +26311,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>64921.82232287327</v>
+        <v>64921.82232287325</v>
       </c>
       <c r="C2" t="n">
-        <v>82104.17698642839</v>
+        <v>82104.1769864284</v>
       </c>
       <c r="D2" t="n">
-        <v>82104.17698642834</v>
+        <v>82104.17698642833</v>
       </c>
       <c r="E2" t="n">
-        <v>80714.65996900063</v>
+        <v>80714.65996900066</v>
       </c>
       <c r="F2" t="n">
-        <v>80714.65996900063</v>
+        <v>80714.65996900066</v>
       </c>
       <c r="G2" t="n">
-        <v>80714.65996900058</v>
+        <v>80714.65996900061</v>
       </c>
       <c r="H2" t="n">
-        <v>80714.65996900064</v>
+        <v>80714.65996900061</v>
       </c>
       <c r="I2" t="n">
-        <v>80714.65996900058</v>
+        <v>80714.65996900061</v>
       </c>
       <c r="J2" t="n">
         <v>82104.17698642837</v>
@@ -26341,19 +26341,19 @@
         <v>82104.17698642837</v>
       </c>
       <c r="L2" t="n">
-        <v>82104.17698642843</v>
+        <v>82104.17698642836</v>
       </c>
       <c r="M2" t="n">
         <v>82104.17698642839</v>
       </c>
       <c r="N2" t="n">
-        <v>82104.17698642839</v>
+        <v>82104.17698642837</v>
       </c>
       <c r="O2" t="n">
-        <v>82104.17698642841</v>
+        <v>82104.17698642837</v>
       </c>
       <c r="P2" t="n">
-        <v>82104.17698642839</v>
+        <v>82104.17698642837</v>
       </c>
     </row>
     <row r="3">
@@ -26369,10 +26369,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>192627.1404403379</v>
+        <v>192627.140440338</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073552</v>
+        <v>325412.4618073554</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26396,13 +26396,13 @@
         <v>48293.97000819074</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551187</v>
+        <v>85055.0279355119</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>19427.71799363178</v>
+        <v>19427.71799363175</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>38655.05046517603</v>
+        <v>38655.05046517599</v>
       </c>
       <c r="C4" t="n">
         <v>136726.2736921025</v>
       </c>
       <c r="D4" t="n">
-        <v>88524.23512810792</v>
+        <v>88524.23512810789</v>
       </c>
       <c r="E4" t="n">
         <v>9337.200356756592</v>
       </c>
       <c r="F4" t="n">
-        <v>9337.20035675659</v>
+        <v>9337.200356756592</v>
       </c>
       <c r="G4" t="n">
-        <v>9337.200356756603</v>
+        <v>9337.200356756533</v>
       </c>
       <c r="H4" t="n">
+        <v>9337.20035675655</v>
+      </c>
+      <c r="I4" t="n">
         <v>9337.200356756592</v>
       </c>
-      <c r="I4" t="n">
-        <v>9337.20035675659</v>
-      </c>
       <c r="J4" t="n">
-        <v>17328.05961985008</v>
+        <v>17328.05961985006</v>
       </c>
       <c r="K4" t="n">
         <v>17328.05961985012</v>
       </c>
       <c r="L4" t="n">
+        <v>17328.05961985012</v>
+      </c>
+      <c r="M4" t="n">
+        <v>17328.05961985007</v>
+      </c>
+      <c r="N4" t="n">
+        <v>17328.05961985006</v>
+      </c>
+      <c r="O4" t="n">
         <v>17328.05961985005</v>
       </c>
-      <c r="M4" t="n">
+      <c r="P4" t="n">
         <v>17328.05961985006</v>
-      </c>
-      <c r="N4" t="n">
-        <v>17328.05961985007</v>
-      </c>
-      <c r="O4" t="n">
-        <v>17328.05961985008</v>
-      </c>
-      <c r="P4" t="n">
-        <v>17328.05961985005</v>
       </c>
     </row>
     <row r="5">
@@ -26519,37 +26519,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1181422.784158067</v>
+        <v>-1181852.343024656</v>
       </c>
       <c r="C6" t="n">
         <v>-147559.8691455188</v>
       </c>
       <c r="D6" t="n">
-        <v>-306981.1391434107</v>
+        <v>-306981.1391434108</v>
       </c>
       <c r="E6" t="n">
-        <v>-355157.5320190183</v>
+        <v>-355192.2699444541</v>
       </c>
       <c r="F6" t="n">
-        <v>-29745.07021166307</v>
+        <v>-29779.80813709875</v>
       </c>
       <c r="G6" t="n">
-        <v>-29745.07021166313</v>
+        <v>-29779.80813709875</v>
       </c>
       <c r="H6" t="n">
-        <v>-29745.07021166307</v>
+        <v>-29779.80813709876</v>
       </c>
       <c r="I6" t="n">
-        <v>-29745.07021166311</v>
+        <v>-29779.80813709879</v>
       </c>
       <c r="J6" t="n">
         <v>-225420.8942909514</v>
       </c>
       <c r="K6" t="n">
-        <v>-38387.9984873371</v>
+        <v>-38387.99848733714</v>
       </c>
       <c r="L6" t="n">
-        <v>-86681.96849552776</v>
+        <v>-86681.96849552789</v>
       </c>
       <c r="M6" t="n">
         <v>-123443.026422849</v>
@@ -26558,10 +26558,10 @@
         <v>-38387.99848733708</v>
       </c>
       <c r="O6" t="n">
-        <v>-57815.71648096884</v>
+        <v>-57815.71648096883</v>
       </c>
       <c r="P6" t="n">
-        <v>-38387.99848733702</v>
+        <v>-38387.99848733708</v>
       </c>
     </row>
   </sheetData>
@@ -26707,25 +26707,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K2" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="N2" t="n">
         <v>24.28464749203973</v>
       </c>
       <c r="O2" t="n">
+        <v>24.28464749203969</v>
+      </c>
+      <c r="P2" t="n">
         <v>24.28464749203972</v>
-      </c>
-      <c r="P2" t="n">
-        <v>24.2846474920397</v>
       </c>
     </row>
     <row r="3">
@@ -26793,19 +26793,19 @@
         <v>640.5848321000389</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
@@ -26929,7 +26929,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26944,7 +26944,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>155.7118084757592</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27015,7 +27015,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>190.8166233022537</v>
+        <v>190.8166233022539</v>
       </c>
       <c r="E4" t="n">
         <v>341.3068326973558</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>190.8166233022539</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973561</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27261,7 +27261,7 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022537</v>
+        <v>190.8166233022539</v>
       </c>
       <c r="M4" t="n">
         <v>341.3068326973558</v>
@@ -27433,13 +27433,13 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>108.1898508904276</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>39.32139020186429</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27534,22 +27534,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
         <v>147.2515091551288</v>
@@ -27582,16 +27582,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>182.0036585129668</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -27625,13 +27625,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>140.3419152079416</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
         <v>65.70991267247049</v>
@@ -27676,10 +27676,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>92.11949905293409</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27783,10 +27783,10 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>123.890237983566</v>
       </c>
       <c r="G7" t="n">
-        <v>153.2672980706371</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -27819,28 +27819,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,13 +27850,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>324.9180517995066</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27868,7 +27868,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27901,7 +27901,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -27913,10 +27913,10 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>267.9506035067358</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28008,22 +28008,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>103.1042206302165</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
@@ -28056,19 +28056,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>143.272559905432</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28087,7 +28087,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -28561,7 +28561,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -29329,7 +29329,7 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="29">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="32">
@@ -29812,7 +29812,7 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="35">
@@ -30001,7 +30001,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
     </row>
     <row r="38">
@@ -30277,7 +30277,7 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -30475,7 +30475,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
   </sheetData>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,10 +31829,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31841,37 +31841,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>368.6279838366855</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>340.4395077511227</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>270.9486956727256</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>368.6279838366847</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>220.7280629601522</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>301.1823051500296</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>512.9101366533177</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>171.4104471179106</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159414</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,10 +32777,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
@@ -32789,16 +32789,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
         <v>400.5469039565762</v>
@@ -32813,13 +32813,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236497</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,10 +33014,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
@@ -33026,16 +33026,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
         <v>400.5469039565762</v>
@@ -33050,13 +33050,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33257,7 +33257,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
@@ -33275,7 +33275,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33436,7 +33436,7 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.820449923651</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
         <v>593.8732233669223</v>
@@ -33497,13 +33497,13 @@
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
@@ -33512,16 +33512,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33673,7 +33673,7 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.820449923651</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
         <v>593.8732233669223</v>
@@ -33734,7 +33734,7 @@
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
         <v>475.1391886422585</v>
@@ -33749,7 +33749,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>551.7051287319853</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33971,13 +33971,13 @@
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
@@ -33986,16 +33986,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34144,10 +34144,10 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.820449923651</v>
       </c>
       <c r="Q41" t="n">
         <v>593.8732233669223</v>
@@ -34205,34 +34205,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34363,7 +34363,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34372,7 +34372,7 @@
         <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162566</v>
       </c>
       <c r="M44" t="n">
         <v>965.6463440175675</v>
@@ -34442,34 +34442,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34778,7 +34778,7 @@
         <v>189.0712562313263</v>
       </c>
       <c r="K3" t="n">
-        <v>186.5874962434848</v>
+        <v>379.9148430313201</v>
       </c>
       <c r="L3" t="n">
         <v>297.6803606378502</v>
@@ -34790,7 +34790,7 @@
         <v>391.1970995928739</v>
       </c>
       <c r="O3" t="n">
-        <v>504.1681401741877</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
         <v>249.6795291235323</v>
@@ -34799,7 +34799,7 @@
         <v>326.5580100667037</v>
       </c>
       <c r="R3" t="n">
-        <v>24.58388860977092</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35492,25 +35492,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>237.2862717533522</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>197.8432633066783</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191305</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,31 +35723,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
-        <v>128.8146617507074</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>237.2862717533515</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396415</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,34 +35957,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>82.88662398579324</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>159.0482712280113</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,34 +36194,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>370.3138922088733</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193505</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
         <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36440,13 +36440,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
         <v>257.9506595121318</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683802</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36677,13 +36677,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
         <v>257.9506595121318</v>
@@ -36753,19 +36753,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K28" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L28" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M28" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N28" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O28" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P28" t="n">
         <v>319.9164207986647</v>
@@ -36905,7 +36905,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36923,7 +36923,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -36990,10 +36990,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K31" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L31" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M31" t="n">
         <v>450.5570744930848</v>
@@ -37008,7 +37008,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q31" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37084,7 +37084,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
         <v>371.5675334924728</v>
@@ -37145,13 +37145,13 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
@@ -37160,16 +37160,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37230,7 +37230,7 @@
         <v>288.6172359016746</v>
       </c>
       <c r="L34" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M34" t="n">
         <v>450.5570744930848</v>
@@ -37245,7 +37245,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q34" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37321,7 +37321,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
         <v>371.5675334924728</v>
@@ -37382,7 +37382,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
         <v>337.2977496678996</v>
@@ -37397,7 +37397,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>409.1088842875408</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>105.3311307549931</v>
+        <v>105.331130754993</v>
       </c>
       <c r="K37" t="n">
         <v>288.6172359016746</v>
@@ -37482,7 +37482,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37619,13 +37619,13 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
@@ -37634,16 +37634,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37701,10 +37701,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M40" t="n">
         <v>450.5570744930848</v>
@@ -37792,10 +37792,10 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q41" t="n">
         <v>371.5675334924728</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>105.3311307549931</v>
+        <v>105.331130754993</v>
       </c>
       <c r="K43" t="n">
         <v>288.6172359016746</v>
@@ -37956,7 +37956,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38011,7 +38011,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38020,7 +38020,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M44" t="n">
         <v>735.3001107902948</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38193,7 +38193,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q46" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
